--- a/docs/Expense Tracker Project (Excel).xlsx
+++ b/docs/Expense Tracker Project (Excel).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expense-Tracker-Project\ProjectFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expense-Tracker-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA4E397-ECDC-4D21-9613-C6B47921C7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC55B81-6DFC-48CF-A1F8-F874A4730CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{F41EB9A7-02AC-47DA-B44E-1FA889384F09}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Group Members</t>
   </si>
@@ -184,6 +184,42 @@
   </si>
   <si>
     <t>OverVirew</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Design the GUI</t>
+  </si>
+  <si>
+    <t>Creating the database</t>
+  </si>
+  <si>
+    <t>Testing the App</t>
+  </si>
+  <si>
+    <t>Getting the feedback and add the add-on</t>
+  </si>
+  <si>
+    <t>1/4/26 - 14/4/26</t>
+  </si>
+  <si>
+    <t>15/4/26 - 28/4/26</t>
+  </si>
+  <si>
+    <t>29/4/26 - 2/5/26</t>
+  </si>
+  <si>
+    <t>3/5/26 - 23/5/26</t>
   </si>
 </sst>
 </file>
@@ -248,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -391,11 +427,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,50 +487,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,55 +1701,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7AD370-2AFF-4D55-910D-488AA8A39DD0}">
-  <dimension ref="B2:T27"/>
+  <dimension ref="B2:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="P4" s="20" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="P4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -1693,14 +1778,14 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="P7" t="s">
         <v>34</v>
       </c>
@@ -1721,16 +1806,16 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="P9" t="s">
         <v>38</v>
       </c>
@@ -1739,7 +1824,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="9"/>
@@ -1748,7 +1833,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="13"/>
       <c r="P10" t="s">
         <v>40</v>
       </c>
@@ -1757,7 +1842,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="9"/>
@@ -1766,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="13"/>
       <c r="P11" t="s">
         <v>42</v>
       </c>
@@ -1775,7 +1860,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="9"/>
@@ -1784,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="13"/>
       <c r="P12" t="s">
         <v>44</v>
       </c>
@@ -1793,16 +1878,16 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="P13" t="s">
         <v>46</v>
       </c>
@@ -1826,19 +1911,19 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
@@ -1853,135 +1938,230 @@
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="8" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="11"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C39" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="35">
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="B2:I4"/>
     <mergeCell ref="P4:T4"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
@@ -1993,17 +2173,6 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="C18:I18"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
